--- a/src/templates/excel/BIEUDO.xlsx
+++ b/src/templates/excel/BIEUDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web-api-cafe\src\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE2F32-593D-437F-918F-0CABF7B2F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C158561D-A6E4-48C8-A697-22E7C01FF116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0970DB47-BEE6-4999-B395-D388B8EC8A6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0970DB47-BEE6-4999-B395-D388B8EC8A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,6 +197,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BIỂU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> ĐỒ TỔNG QUAN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1720,17 +1750,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A338EA-6476-40BD-8E3D-4E46612B328A}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="2" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="12" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1775,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1758,7 +1788,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1769,8 +1799,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1779,7 +1809,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1788,7 +1818,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>3</v>
       </c>
